--- a/오류분석/일관성_오류.xlsx
+++ b/오류분석/일관성_오류.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MATAGI\Desktop\Git\NER-Model\오류분석\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2AFF4F-50E0-487C-AFF2-0B76F15F271D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="2415" yWindow="1350" windowWidth="20625" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +24,193 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도메인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개체명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Labeling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 신라랑 이 천년 간에</t>
+  </si>
+  <si>
+    <t>신라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전 국가들은 DT로 Labeling 하는 것으로 보였음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Correct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 사리는 기원전 2세기경 스리랑카 남부 루후누 왕국 초기부터 전해오는 것으로 암바란토타 지역 테네콘 가문에서 가보로 보관해왔다.</t>
+  </si>
+  <si>
+    <t>루후누 왕국</t>
+  </si>
+  <si>
+    <t>평택기지 건설이 북쪽만을 겨냥한 것이라고 생각하는 사람은 없다.</t>
+  </si>
+  <si>
+    <t>북쪽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM(방향)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북쪽은 '북한'을 의미하겠지만 방향이 더 맞는 것으로 보임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당초 미·일 외무장관 회담은 일본측 희망에 따른 것이었다.</t>
+  </si>
+  <si>
+    <t>회담</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~회담'은 OG로 태깅되는 것이 맞는가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 삼국사기에 동명성왕 이야기에도 동해가 나오고</t>
+  </si>
+  <si>
+    <t>동명성왕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동명(PS)
+성왕(CV)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동명성왕(PS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동명성왕' 자체가 왕의 이름으로 알고 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메이지 5년인 1872년입니다.</t>
+  </si>
+  <si>
+    <t>메이지 5년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메이지(PS)
+5년(DT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메이지 5년(DT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메이지 5년은 모두 어떤 왕조 시대를 가리키는 것
+이와 비슷하게 왕조시대의 예를 찾아봐야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윗니 중요한 이가 위에 올라가져 있어서</t>
+  </si>
+  <si>
+    <t>위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니 그 교회 앞에</t>
+  </si>
+  <si>
+    <t>앞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 단어 모두 방향을 나타내지만 '앞'은 태깅 되지 않고
+'위'는 태깅 되어 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +234,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +528,234 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.75" customWidth="1"/>
+    <col min="4" max="4" width="43.5" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="4">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="4"/>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="B10:B11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>